--- a/Куделин/Солнечная энергетика/Solar NorthAmerica US.xlsx
+++ b/Куделин/Солнечная энергетика/Solar NorthAmerica US.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>481.75239614253411</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>584.67540522355932</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>702.78831335845598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>834.15394115810659</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>974.77905596522737</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1127.4106597709281</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>86.478511680310305</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114.25414377605644</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137.44299999562278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.58590913517799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>184.92912458066002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>226.40333050187743</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627542640"/>
-        <c:axId val="1627525232"/>
+        <c:axId val="-85357808"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627542640"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627525232"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627525232"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542640"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1252.1244141100449</c:v>
+                  <c:v>4.547852327141074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.600471011328</c:v>
+                  <c:v>5.8636526774342066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1533.1842586267489</c:v>
+                  <c:v>7.4154505964378519</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.8958141370886</c:v>
+                  <c:v>9.6337216641315759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1794.496044082596</c:v>
+                  <c:v>12.55674296300327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.9281340152802</c:v>
+                  <c:v>4.5762227908291848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1434.3182547422564</c:v>
+                  <c:v>5.9459227080127466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.7361474750783</c:v>
+                  <c:v>7.598039003051996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.8066772077364</c:v>
+                  <c:v>9.9997073339075904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1895.2611076395558</c:v>
+                  <c:v>13.233138005477686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627546448"/>
-        <c:axId val="1627532848"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85352912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627546448"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627532848"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627532848"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627546448"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.1725263146482</c:v>
+                  <c:v>4.647906548466457</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.0813544604541</c:v>
+                  <c:v>6.1230679310902083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.6102348927088</c:v>
+                  <c:v>7.9576790288444084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.5419234416452</c:v>
+                  <c:v>10.680446548704296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.6585932464959</c:v>
+                  <c:v>14.444073230764463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.5703959529767</c:v>
+                  <c:v>4.6491887049012703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.912391382044</c:v>
+                  <c:v>6.1262160162630863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1655.0386645961439</c:v>
+                  <c:v>7.9641106578244045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.7265244067462</c:v>
+                  <c:v>10.69276394227424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.9706639867163</c:v>
+                  <c:v>14.466305819619462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627543728"/>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85346384"/>
+        <c:axId val="-85352368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627543728"/>
+        <c:axId val="-85346384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627540464"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627543728"/>
+        <c:crossAx val="-85346384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>0.52331367847850285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>0.55323595442710227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.5456430955342495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.54176460922418679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.53860522751136797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>0.54193370675483377</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.60193000286135767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.63233443976379211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>0.64144379203756041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>0.7213955956735002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>0.77490063361437367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>0.8554321290788035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>1.13041049862401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>1.687062563699731</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>2.2119603942444148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>3.299591976527668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>5.3516192794852833</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>9.9868208262476745</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>17.644685379587791</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>31.557362626262631</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>42.523411641575898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>59.704800353535347</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>82.817820252525266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>101.3167605050505</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>122.0178553535354</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>152.1574391919192</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>191.44436454545459</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>231.45889994425389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627542096"/>
-        <c:axId val="1627553520"/>
+        <c:axId val="-85351824"/>
+        <c:axId val="-85361616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627553520"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627553520"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542096"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627543184"/>
-        <c:axId val="1627547536"/>
+        <c:axId val="-85344208"/>
+        <c:axId val="-85368144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627543184"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627547536"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627547536"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627543184"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627544816"/>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85351280"/>
+        <c:axId val="-85362160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627544816"/>
+        <c:axId val="-85351280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627526864"/>
+        <c:crossAx val="-85362160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627544816"/>
+        <c:crossAx val="-85351280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627549168"/>
-        <c:axId val="1627545360"/>
+        <c:axId val="-85371952"/>
+        <c:axId val="-85372496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627549168"/>
+        <c:axId val="-85371952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627545360"/>
+        <c:crossAx val="-85372496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627545360"/>
+        <c:axId val="-85372496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627549168"/>
+        <c:crossAx val="-85371952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:AF3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>0.52331367847850285</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>0.55323595442710227</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.5456430955342495</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.54176460922418679</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.53860522751136797</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>0.54193370675483377</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.60193000286135767</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.63233443976379211</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>0.64144379203756041</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>0.7213955956735002</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>0.77490063361437367</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>0.8554321290788035</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>1.13041049862401</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>1.687062563699731</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>2.2119603942444148</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>3.299591976527668</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>5.3516192794852833</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>9.9868208262476745</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>17.644685379587791</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>31.557362626262631</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>42.523411641575898</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>59.704800353535347</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>82.817820252525266</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>101.3167605050505</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>122.0178553535354</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>152.1574391919192</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>191.44436454545459</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>231.45889994425389</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.68873924994675562</v>
+        <v>-1.6940720714260395</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.89790740475795439</v>
+        <v>-9.469415696975414</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>1.1616973586378039</v>
+        <v>-758.20800890586816</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.5005372623891824</v>
+        <v>-3965275.7844096869</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.9341090580562512</v>
+        <v>-106124082304067.55</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.4958992524948131</v>
+        <v>-7.5518103532069812E+28</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>3.1943603688489848</v>
+        <v>-3.4429084139349052E+58</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>4.0955494867819544</v>
+        <v>-6.8119807945242721E+117</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>5.2399267533311118</v>
-      </c>
-      <c r="O16">
+        <v>-2.6287999282778429E+236</v>
+      </c>
+      <c r="O16" t="e">
         <f t="shared" si="6"/>
-        <v>6.6992283184028762</v>
-      </c>
-      <c r="P16">
+        <v>#NUM!</v>
+      </c>
+      <c r="P16" t="e">
         <f t="shared" si="6"/>
-        <v>8.5395695135106386</v>
-      </c>
-      <c r="Q16">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q16" t="e">
         <f t="shared" si="6"/>
-        <v>10.855726802420916</v>
-      </c>
-      <c r="R16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R16" t="e">
         <f t="shared" si="6"/>
-        <v>13.77199209399817</v>
-      </c>
-      <c r="S16">
+        <v>#NUM!</v>
+      </c>
+      <c r="S16" t="e">
         <f t="shared" si="6"/>
-        <v>17.377580560478116</v>
-      </c>
-      <c r="T16">
+        <v>#NUM!</v>
+      </c>
+      <c r="T16" t="e">
         <f t="shared" si="6"/>
-        <v>21.786823573913566</v>
-      </c>
-      <c r="U16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U16" t="e">
         <f t="shared" si="6"/>
-        <v>27.340401216195417</v>
-      </c>
-      <c r="V16">
+        <v>#NUM!</v>
+      </c>
+      <c r="V16" t="e">
         <f t="shared" si="6"/>
-        <v>34.044737071262105</v>
-      </c>
-      <c r="W16">
+        <v>#NUM!</v>
+      </c>
+      <c r="W16" t="e">
         <f t="shared" si="6"/>
-        <v>42.078391267700844</v>
-      </c>
-      <c r="X16">
+        <v>#NUM!</v>
+      </c>
+      <c r="X16" t="e">
         <f t="shared" si="6"/>
-        <v>51.595118331227113</v>
-      </c>
-      <c r="Y16">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y16" t="e">
         <f t="shared" si="6"/>
-        <v>62.625149399833113</v>
-      </c>
-      <c r="Z16">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z16" t="e">
         <f t="shared" si="6"/>
-        <v>74.86333191687487</v>
-      </c>
-      <c r="AA16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA16" t="e">
         <f t="shared" si="6"/>
-        <v>88.451148307993037</v>
-      </c>
-      <c r="AB16" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB16" s="43" t="e">
         <f t="shared" si="6"/>
-        <v>102.92300908102526</v>
-      </c>
-      <c r="AC16" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>118.11290813489666</v>
-      </c>
-      <c r="AD16" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>131.36562779965055</v>
-      </c>
-      <c r="AE16" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>140.62511480712084</v>
-      </c>
-      <c r="AF16" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF16" s="45" t="e">
         <f t="shared" si="6"/>
-        <v>152.63160380570062</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,367 +14539,367 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>1.2032108234252585</v>
+        <v>-1.1796004979475367</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>2.1011182281832128</v>
+        <v>-10.64901619492295</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>3.2628155868210165</v>
+        <v>-768.85702510079113</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>4.7633528492101984</v>
+        <v>-3966044.6414347878</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>6.6974619072664492</v>
+        <v>-106124086270112.19</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>9.1933611597612632</v>
+        <v>-7.5518103532069917E+28</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>12.387721528610248</v>
+        <v>-3.4429084139349052E+58</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>16.483271015392202</v>
+        <v>-6.8119807945242721E+117</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>21.723197768723313</v>
-      </c>
-      <c r="O17" s="6">
+        <v>-2.6287999282778429E+236</v>
+      </c>
+      <c r="O17" s="6" t="e">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>28.42242608712619</v>
-      </c>
-      <c r="P17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="P17" s="6" t="e">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>36.961995600636826</v>
-      </c>
-      <c r="Q17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q17" s="6" t="e">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>47.817722403057743</v>
-      </c>
-      <c r="R17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="R17" s="6" t="e">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>61.589714497055915</v>
-      </c>
-      <c r="S17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="S17" s="6" t="e">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>78.967295057534031</v>
-      </c>
-      <c r="T17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="T17" s="6" t="e">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>100.7541186314476</v>
-      </c>
-      <c r="U17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="U17" s="6" t="e">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>128.09451984764303</v>
-      </c>
-      <c r="V17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="V17" s="6" t="e">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>162.13925691890512</v>
-      </c>
-      <c r="W17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="W17" s="6" t="e">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>204.21764818660597</v>
-      </c>
-      <c r="X17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="X17" s="6" t="e">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>255.8127665178331</v>
-      </c>
-      <c r="Y17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y17" s="6" t="e">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>318.4379159176662</v>
-      </c>
-      <c r="Z17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z17" s="6" t="e">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>393.30124783454107</v>
-      </c>
-      <c r="AA17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA17" s="6" t="e">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>481.75239614253411</v>
-      </c>
-      <c r="AB17" s="49">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB17" s="49" t="e">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>584.67540522355932</v>
-      </c>
-      <c r="AC17" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC17" s="50" t="e">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>702.78831335845598</v>
-      </c>
-      <c r="AD17" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD17" s="50" t="e">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>834.15394115810659</v>
-      </c>
-      <c r="AE17" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE17" s="50" t="e">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>974.77905596522737</v>
-      </c>
-      <c r="AF17" s="51">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF17" s="51" t="e">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1127.4106597709281</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="17" t="e">
         <f>AF17-$AF$3</f>
-        <v>921.23894259921087</v>
-      </c>
-      <c r="C18" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="C18" s="18" t="e">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>517.54412221425264</v>
+        <v>#NUM!</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="5" t="e">
         <f>SUM(F18:AA18)</f>
-        <v>504683.38680685731</v>
+        <v>#NUM!</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.43807137534415458</v>
+        <v>2.9616403877166046</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>2.4599491405419469</v>
+        <v>125.0306815168215</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>7.4974995979193633</v>
+        <v>591948.17636252672</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>18.020116518865585</v>
+        <v>15729514209389.439</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>38.179413872918843</v>
+        <v>1.1262321686666323E+28</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>74.287335177479505</v>
+        <v>5.702983961080431E+57</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>138.91271731575281</v>
+        <v>1.1853618346743764E+117</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>251.93996081111658</v>
-      </c>
-      <c r="N18">
+        <v>4.6403082344967531E+235</v>
+      </c>
+      <c r="N18" t="e">
         <f t="shared" si="32"/>
-        <v>442.05337217048645</v>
-      </c>
-      <c r="O18">
+        <v>#NUM!</v>
+      </c>
+      <c r="O18" t="e">
         <f t="shared" si="32"/>
-        <v>765.82401102616643</v>
-      </c>
-      <c r="P18">
+        <v>#NUM!</v>
+      </c>
+      <c r="P18" t="e">
         <f t="shared" si="32"/>
-        <v>1305.9234936608848</v>
-      </c>
-      <c r="Q18">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q18" t="e">
         <f t="shared" si="32"/>
-        <v>2182.9744296951899</v>
-      </c>
-      <c r="R18">
+        <v>#NUM!</v>
+      </c>
+      <c r="R18" t="e">
         <f t="shared" si="32"/>
-        <v>3594.8001110576238</v>
-      </c>
-      <c r="S18">
+        <v>#NUM!</v>
+      </c>
+      <c r="S18" t="e">
         <f t="shared" si="32"/>
-        <v>5912.277346302003</v>
-      </c>
-      <c r="T18">
+        <v>#NUM!</v>
+      </c>
+      <c r="T18" t="e">
         <f t="shared" si="32"/>
-        <v>9553.3191516749266</v>
-      </c>
-      <c r="U18">
+        <v>#NUM!</v>
+      </c>
+      <c r="U18" t="e">
         <f t="shared" si="32"/>
-        <v>15216.607929579612</v>
-      </c>
-      <c r="V18">
+        <v>#NUM!</v>
+      </c>
+      <c r="V18" t="e">
         <f t="shared" si="32"/>
-        <v>23440.296861653995</v>
-      </c>
-      <c r="W18">
+        <v>#NUM!</v>
+      </c>
+      <c r="W18" t="e">
         <f t="shared" si="32"/>
-        <v>35410.941884624604</v>
-      </c>
-      <c r="X18">
+        <v>#NUM!</v>
+      </c>
+      <c r="X18" t="e">
         <f t="shared" si="32"/>
-        <v>51346.021352964206</v>
-      </c>
-      <c r="Y18">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y18" t="e">
         <f t="shared" si="32"/>
-        <v>77847.502672402406</v>
-      </c>
-      <c r="Z18">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z18" t="e">
         <f t="shared" si="32"/>
-        <v>114163.60112059147</v>
-      </c>
-      <c r="AA18">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA18" t="e">
         <f t="shared" si="32"/>
-        <v>162969.50800564379</v>
-      </c>
-      <c r="AB18" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB18" s="43" t="e">
         <f t="shared" si="32"/>
-        <v>240460.11285439512</v>
-      </c>
-      <c r="AC18" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>353804.37980388053</v>
-      </c>
-      <c r="AD18" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>492962.00059376564</v>
-      </c>
-      <c r="AE18" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>653989.58866774256</v>
-      </c>
-      <c r="AF18" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF18" s="45" t="e">
         <f t="shared" si="32"/>
-        <v>848681.18936131219</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="20" t="e">
         <f>(B18/$AF$3)*100</f>
-        <v>446.83090155956035</v>
-      </c>
-      <c r="C19" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="C19" s="21" t="e">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>403.97111240143334</v>
+        <v>#NUM!</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="5" t="e">
         <f>SUM(F19:AA19)</f>
-        <v>2129.6376300612269</v>
+        <v>#NUM!</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.66186960599815625</v>
+        <v>1.7209417153746389</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.5684225006489632</v>
+        <v>11.1817119224572</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.7381562405968296</v>
+        <v>769.38168444701535</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>4.2450107795935672</v>
+        <v>3966045.1597768576</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>6.1789492531431947</v>
+        <v>106124086270112.7</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>8.6190101042683267</v>
+        <v>7.5518103532069917E+28</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>11.786123930951719</v>
+        <v>3.4429084139349052E+58</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>15.872616697038852</v>
-      </c>
-      <c r="N19">
+        <v>6.8119807945242721E+117</v>
+      </c>
+      <c r="N19" t="e">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>21.02506533094455</v>
-      </c>
-      <c r="O19">
+        <v>#NUM!</v>
+      </c>
+      <c r="O19" t="e">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>27.673525453511818</v>
-      </c>
-      <c r="P19">
+        <v>#NUM!</v>
+      </c>
+      <c r="P19" t="e">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>36.137563471558025</v>
-      </c>
-      <c r="Q19">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q19" t="e">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>46.722311904433731</v>
-      </c>
-      <c r="R19">
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" t="e">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>59.956651933356184</v>
-      </c>
-      <c r="S19">
+        <v>#NUM!</v>
+      </c>
+      <c r="S19" t="e">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>76.891334663289612</v>
-      </c>
-      <c r="T19">
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" t="e">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>97.741082210475483</v>
-      </c>
-      <c r="U19">
+        <v>#NUM!</v>
+      </c>
+      <c r="U19" t="e">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>123.3556157196729</v>
-      </c>
-      <c r="V19">
+        <v>#NUM!</v>
+      </c>
+      <c r="V19" t="e">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>153.10224316336451</v>
-      </c>
-      <c r="W19">
+        <v>#NUM!</v>
+      </c>
+      <c r="W19" t="e">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>188.17795270600806</v>
-      </c>
-      <c r="X19">
+        <v>#NUM!</v>
+      </c>
+      <c r="X19" t="e">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>226.59660490167147</v>
-      </c>
-      <c r="Y19">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y19" t="e">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>279.0116532914036</v>
-      </c>
-      <c r="Z19">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z19" t="e">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>337.88104581433902</v>
-      </c>
-      <c r="AA19">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA19" t="e">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>403.69482038495835</v>
-      </c>
-      <c r="AB19" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB19" s="43" t="e">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>490.36732441547849</v>
-      </c>
-      <c r="AC19" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC19" s="44" t="e">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>594.81457598471854</v>
-      </c>
-      <c r="AD19" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD19" s="44" t="e">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>702.11252701669241</v>
-      </c>
-      <c r="AE19" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE19" s="44" t="e">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>808.69622768239901</v>
-      </c>
-      <c r="AF19" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF19" s="45" t="e">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>921.23894259921087</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.8791889032162636</v>
+        <v>-2.1658838772953937</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>5.0242353116359482</v>
+        <v>-21.425548952925318</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.5875311667605709</v>
+        <v>-3252.8836578099713</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>6.055559725215935</v>
+        <v>-75489980.653626561</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.5351834977044581</v>
+        <v>-3.895005950101564E+16</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>7.1203087804232883</v>
+        <v>-9.8202606052001952E+33</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.606522549846197</v>
+        <v>-5.3600755473887695E+68</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.2283027111625771</v>
+        <v>-1.4509745191361949E+138</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.909093849958813</v>
-      </c>
-      <c r="O24">
+        <v>-1.0013968048498128E+277</v>
+      </c>
+      <c r="O24" t="e">
         <f t="shared" si="60"/>
-        <v>9.7258301048516724</v>
-      </c>
-      <c r="P24">
+        <v>#NUM!</v>
+      </c>
+      <c r="P24" t="e">
         <f t="shared" si="60"/>
-        <v>10.592558639471488</v>
-      </c>
-      <c r="Q24">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q24" t="e">
         <f t="shared" si="60"/>
-        <v>11.486785558689304</v>
-      </c>
-      <c r="R24">
+        <v>#NUM!</v>
+      </c>
+      <c r="R24" t="e">
         <f t="shared" si="60"/>
-        <v>12.521450269402951</v>
-      </c>
-      <c r="S24">
+        <v>#NUM!</v>
+      </c>
+      <c r="S24" t="e">
         <f t="shared" si="60"/>
-        <v>13.405002303648322</v>
-      </c>
-      <c r="T24">
+        <v>#NUM!</v>
+      </c>
+      <c r="T24" t="e">
         <f t="shared" si="60"/>
-        <v>14.047983829011446</v>
-      </c>
-      <c r="U24">
+        <v>#NUM!</v>
+      </c>
+      <c r="U24" t="e">
         <f t="shared" si="60"/>
-        <v>15.438949666786627</v>
-      </c>
-      <c r="V24">
+        <v>#NUM!</v>
+      </c>
+      <c r="V24" t="e">
         <f t="shared" si="60"/>
-        <v>16.791371626349996</v>
-      </c>
-      <c r="W24">
+        <v>#NUM!</v>
+      </c>
+      <c r="W24" t="e">
         <f t="shared" si="60"/>
-        <v>18.254911441532315</v>
-      </c>
-      <c r="X24">
+        <v>#NUM!</v>
+      </c>
+      <c r="X24" t="e">
         <f t="shared" si="60"/>
-        <v>20.356994112613236</v>
-      </c>
-      <c r="Y24">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y24" t="e">
         <f t="shared" si="60"/>
-        <v>23.163590737690651</v>
-      </c>
-      <c r="Z24">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z24" t="e">
         <f t="shared" si="60"/>
-        <v>27.158326305173247</v>
-      </c>
-      <c r="AA24">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA24" t="e">
         <f t="shared" si="60"/>
-        <v>31.058309660108275</v>
-      </c>
-      <c r="AB24" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB24" s="43" t="e">
         <f t="shared" si="60"/>
-        <v>36.196568018480676</v>
-      </c>
-      <c r="AC24" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC24" s="44" t="e">
         <f t="shared" si="60"/>
-        <v>43.134919187541989</v>
-      </c>
-      <c r="AD24" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD24" s="44" t="e">
         <f t="shared" si="60"/>
-        <v>48.612171761440592</v>
-      </c>
-      <c r="AE24" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE24" s="44" t="e">
         <f t="shared" si="60"/>
-        <v>52.887710439245815</v>
-      </c>
-      <c r="AF24" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF24" s="45" t="e">
         <f t="shared" si="60"/>
-        <v>60.320502219049125</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,367 +15164,367 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>4.393660476694766</v>
+        <v>-1.6514123038168909</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>5.5655765290630503</v>
+        <v>-20.884207735498215</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>6.1202268942948201</v>
+        <v>-3252.350962082437</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>6.5802190714401219</v>
+        <v>-75489980.128967211</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>7.0535255673210893</v>
+        <v>-3.895005950101564E+16</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>7.6388214345465428</v>
+        <v>-9.8202606052001952E+33</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>8.1808736053391335</v>
+        <v>-5.3600755473887695E+68</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.8299003088211059</v>
+        <v>-1.4509745191361949E+138</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>9.5197481683121623</v>
-      </c>
-      <c r="O25" s="6">
+        <v>-1.0013968048498128E+277</v>
+      </c>
+      <c r="O25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>10.423962542630436</v>
-      </c>
-      <c r="P25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="P25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>11.341459273085862</v>
-      </c>
-      <c r="Q25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>12.311217687768107</v>
-      </c>
-      <c r="R25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="R25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>13.616860768026962</v>
-      </c>
-      <c r="S25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="S25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>15.038064867348055</v>
-      </c>
-      <c r="T25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="T25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>16.123944223255862</v>
-      </c>
-      <c r="U25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="U25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>18.45198608775874</v>
-      </c>
-      <c r="V25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="V25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>21.530275754320126</v>
-      </c>
-      <c r="W25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="W25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>27.291925197072921</v>
-      </c>
-      <c r="X25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="X25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>36.396689593211136</v>
-      </c>
-      <c r="Y25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>52.379752353852268</v>
-      </c>
-      <c r="Z25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>66.584588931435874</v>
-      </c>
-      <c r="AA25" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>86.478511680310305</v>
-      </c>
-      <c r="AB25" s="49">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB25" s="49" t="e">
         <f t="shared" si="61"/>
-        <v>114.25414377605644</v>
-      </c>
-      <c r="AC25" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC25" s="50" t="e">
         <f t="shared" si="61"/>
-        <v>137.44299999562278</v>
-      </c>
-      <c r="AD25" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD25" s="50" t="e">
         <f t="shared" si="61"/>
-        <v>156.58590913517799</v>
-      </c>
-      <c r="AE25" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE25" s="50" t="e">
         <f t="shared" si="61"/>
-        <v>184.92912458066002</v>
-      </c>
-      <c r="AF25" s="51">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF25" s="51" t="e">
         <f t="shared" si="61"/>
-        <v>226.40333050187743</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="17" t="e">
         <f>AF25-$AF$3</f>
-        <v>20.231613330160229</v>
-      </c>
-      <c r="C26" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="C26" s="18" t="e">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>11.810677407425686</v>
+        <v>#NUM!</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="5" t="e">
         <f>SUM(F26:AA26)</f>
-        <v>2102.8464007074349</v>
+        <v>#NUM!</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.840363675324562</v>
+        <v>4.8081680049279303</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>25.329889162397187</v>
+        <v>458.68375394485201</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>31.310376185021198</v>
+        <v>10581199.808484901</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>36.746352785236553</v>
+        <v>5698737178131129</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>42.706393775662448</v>
+        <v>1.5171071351326588E+33</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>49.906741736525802</v>
+        <v>9.64375183540469E+67</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>57.445424800602844</v>
+        <v>2.8730409873715015E+137</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>67.556004651820288</v>
-      </c>
-      <c r="N26">
+        <v>2.1053270551825119E+276</v>
+      </c>
+      <c r="N26" t="e">
         <f t="shared" si="62"/>
-        <v>77.820904097194315</v>
-      </c>
-      <c r="O26">
+        <v>#NUM!</v>
+      </c>
+      <c r="O26" t="e">
         <f t="shared" si="62"/>
-        <v>93.606822943293523</v>
-      </c>
-      <c r="P26">
+        <v>#NUM!</v>
+      </c>
+      <c r="P26" t="e">
         <f t="shared" si="62"/>
-        <v>110.60785994778128</v>
-      </c>
-      <c r="Q26">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q26" t="e">
         <f t="shared" si="62"/>
-        <v>125.79433090405638</v>
-      </c>
-      <c r="R26">
+        <v>#NUM!</v>
+      </c>
+      <c r="R26" t="e">
         <f t="shared" si="62"/>
-        <v>143.61141940203652</v>
-      </c>
-      <c r="S26">
+        <v>#NUM!</v>
+      </c>
+      <c r="S26" t="e">
         <f t="shared" si="62"/>
-        <v>168.01615237165339</v>
-      </c>
-      <c r="T26">
+        <v>#NUM!</v>
+      </c>
+      <c r="T26" t="e">
         <f t="shared" si="62"/>
-        <v>171.89590339998492</v>
-      </c>
-      <c r="U26">
+        <v>#NUM!</v>
+      </c>
+      <c r="U26" t="e">
         <f t="shared" si="62"/>
-        <v>188.04861683587984</v>
-      </c>
-      <c r="V26">
+        <v>#NUM!</v>
+      </c>
+      <c r="V26" t="e">
         <f t="shared" si="62"/>
-        <v>156.08159537014848</v>
-      </c>
-      <c r="W26">
+        <v>#NUM!</v>
+      </c>
+      <c r="W26" t="e">
         <f t="shared" si="62"/>
-        <v>126.61267359232355</v>
-      </c>
-      <c r="X26">
+        <v>#NUM!</v>
+      </c>
+      <c r="X26" t="e">
         <f t="shared" si="62"/>
-        <v>51.559982029190799</v>
-      </c>
-      <c r="Y26">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y26" t="e">
         <f t="shared" si="62"/>
-        <v>167.79289612277034</v>
-      </c>
-      <c r="Z26">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z26" t="e">
         <f t="shared" si="62"/>
-        <v>124.64353510372966</v>
-      </c>
-      <c r="AA26">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA26" t="e">
         <f t="shared" si="62"/>
-        <v>70.912161814801067</v>
-      </c>
-      <c r="AB26" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB26" s="43" t="e">
         <f t="shared" si="62"/>
-        <v>397.84542792244901</v>
-      </c>
-      <c r="AC26" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC26" s="44" t="e">
         <f t="shared" si="62"/>
-        <v>868.43743947765063</v>
-      </c>
-      <c r="AD26" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD26" s="44" t="e">
         <f t="shared" si="62"/>
-        <v>602.43223449889513</v>
-      </c>
-      <c r="AE26" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE26" s="44" t="e">
         <f t="shared" si="62"/>
-        <v>355.18288414566535</v>
-      </c>
-      <c r="AF26" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF26" s="45" t="e">
         <f t="shared" si="62"/>
-        <v>409.31817794111709</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="20" t="e">
         <f>(B26/$AF$3)*100</f>
-        <v>9.8129916206254588</v>
-      </c>
-      <c r="C27" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="C27" s="21" t="e">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>9.2188709825924064</v>
+        <v>#NUM!</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="5" t="e">
         <f>SUM(F27:AA27)</f>
-        <v>205.40488656715632</v>
+        <v>#NUM!</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.8523192592676638</v>
+        <v>2.192753521243993</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>5.0328808015288011</v>
+        <v>21.416903463032465</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.5955675480706333</v>
+        <v>3252.8756214286614</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>6.0618770018234907</v>
+        <v>75489980.647309273</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.5350129131978347</v>
+        <v>3.895005950101564E+16</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>7.0644703790536063</v>
+        <v>9.8202606052001952E+33</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.5792760076806047</v>
+        <v>5.3600755473887695E+68</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.2192459904677566</v>
-      </c>
-      <c r="N27">
+        <v>1.4509745191361949E+138</v>
+      </c>
+      <c r="N27" t="e">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.8216157305333986</v>
-      </c>
-      <c r="O27">
+        <v>#NUM!</v>
+      </c>
+      <c r="O27" t="e">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.6750619090160619</v>
-      </c>
-      <c r="P27">
+        <v>#NUM!</v>
+      </c>
+      <c r="P27" t="e">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.517027144007059</v>
-      </c>
-      <c r="Q27">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q27" t="e">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.215807189144096</v>
-      </c>
-      <c r="R27">
+        <v>#NUM!</v>
+      </c>
+      <c r="R27" t="e">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>11.983798204327229</v>
-      </c>
-      <c r="S27">
+        <v>#NUM!</v>
+      </c>
+      <c r="S27" t="e">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>12.96210447310364</v>
-      </c>
-      <c r="T27">
+        <v>#NUM!</v>
+      </c>
+      <c r="T27" t="e">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.11090780228375</v>
-      </c>
-      <c r="U27">
+        <v>#NUM!</v>
+      </c>
+      <c r="U27" t="e">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>13.71308195978861</v>
-      </c>
-      <c r="V27">
+        <v>#NUM!</v>
+      </c>
+      <c r="V27" t="e">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>12.493261998779522</v>
-      </c>
-      <c r="W27">
+        <v>#NUM!</v>
+      </c>
+      <c r="W27" t="e">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>11.252229716475021</v>
-      </c>
-      <c r="X27">
+        <v>#NUM!</v>
+      </c>
+      <c r="X27" t="e">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>7.1805279770495147</v>
-      </c>
-      <c r="Y27">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y27" t="e">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>12.953489727589641</v>
-      </c>
-      <c r="Z27">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z27" t="e">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>11.164386911233848</v>
-      </c>
-      <c r="AA27">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA27" t="e">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>8.4209359227345431</v>
-      </c>
-      <c r="AB27" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB27" s="43" t="e">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>19.946062967975635</v>
-      </c>
-      <c r="AC27" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC27" s="44" t="e">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>29.469262621885377</v>
-      </c>
-      <c r="AD27" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD27" s="44" t="e">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>24.544494993763777</v>
-      </c>
-      <c r="AE27" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE27" s="44" t="e">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>18.846296297831714</v>
-      </c>
-      <c r="AF27" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF27" s="45" t="e">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>20.231613330160229</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.2992782241227907E-4</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283377</v>
+        <v>1.2635134697791539E-4</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>1.6178965942992285E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>2.0255451830697435E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003899</v>
+        <v>2.6694398484317094E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>5.0231659553312547E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>5.6073442716464417E-4</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819014</v>
+        <v>6.2417141033932477E-4</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>1.1858242372256855E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905596</v>
+        <v>1.3783429331440944E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>2.0052316431754535E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>4.6872976406505673E-3</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872971</v>
+        <v>1.0020816670599175E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>1.3044044290651646E-2</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>2.7832163929457421E-2</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>5.8388478683538803E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404453</v>
+        <v>0.14457189268648296</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.27876708478409706</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>0.56973884320764379</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>0.58003446350057031</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.92255291189088</v>
+        <v>0.95341686439544615</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>1.3853449338042085</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>1.3158003502931326</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>1.5517979190036453</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>2.2182710676937241</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>2.9230212988716939</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>10.479188304036363</v>
+        <v>0.51486125496917501</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>13.473045951274413</v>
+        <v>0.51499118279158729</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>17.240701444902751</v>
+        <v>0.5151175341385652</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>22.149846950415274</v>
+        <v>0.51527932379799513</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.512141300550137</v>
+        <v>0.5154818783163021</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>37.195989791350527</v>
+        <v>0.51574882230114527</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>47.224910744810529</v>
+        <v>0.5162511388966784</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>61.055244309379702</v>
+        <v>0.51681187332384304</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.781159513198716</v>
+        <v>0.51743604473418237</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.55756321754495</v>
+        <v>0.51862186897140805</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>132.24905755545055</v>
+        <v>0.52000021190455215</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>169.31730689081149</v>
+        <v>0.5220054435477276</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>217.37478402579458</v>
+        <v>0.52669274118837817</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.93928753766755</v>
+        <v>0.53671355785897734</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>324.00476781699166</v>
+        <v>0.54975760214962899</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>413.50414073019368</v>
+        <v>0.57758976607908641</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>506.32721150630113</v>
+        <v>0.63597824476262521</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.85066256034565</v>
+        <v>0.78055013744910817</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>725.17422106525294</v>
+        <v>1.0593172222332052</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.79593073765045</v>
+        <v>1.629056065440849</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>969.24765138686996</v>
+        <v>2.2090905289414193</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1107.1702042987608</v>
+        <v>3.1625073933368655</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1252.1244141100449</v>
+        <v>4.547852327141074</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.600471011328</v>
+        <v>5.8636526774342066</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1533.1842586267489</v>
+        <v>7.4154505964378519</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.8958141370886</v>
+        <v>9.6337216641315759</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1794.496044082596</v>
+        <v>12.55674296300327</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1588.3243269108789</v>
+        <v>-193.61497420871393</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>559.21169836969375</v>
+        <v>-118.71990584447504</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4094972.7469187528</v>
+        <v>10993.054691007672</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>98.760804716828147</v>
+        <v>7.0118841177323795E-4</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.45266391305208</v>
+        <v>3.1345090454492963E-4</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.42606344479407</v>
+        <v>9.1046177877313446E-5</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>467.9220034080156</v>
+        <v>9.3804119495721191E-6</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.64324479405172</v>
+        <v>9.1856019920102019E-6</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1341.1444236996649</v>
+        <v>3.4342217350650933E-3</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2173.7333288173963</v>
+        <v>7.2840180231882549E-3</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3653.5484591832833</v>
+        <v>8.8064044891160015E-3</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6096.9591172607652</v>
+        <v>3.2651186459321684E-2</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10365.003777128628</v>
+        <v>5.3028309445490342E-2</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17272.432168462117</v>
+        <v>9.2678792194390222E-2</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28298.606425783863</v>
+        <v>0.32879335718703456</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>46544.49037942812</v>
+        <v>1.2240541841638046</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>71750.762028344529</v>
+        <v>2.3692808233225784</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>103035.69162461435</v>
+        <v>6.0677425392594868</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>167089.01865447179</v>
+        <v>17.316537218480676</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>247297.54077899049</v>
+        <v>70.577397653352605</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>351424.84269002581</v>
+        <v>232.84151660333944</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>484357.62051214499</v>
+        <v>792.80788622389809</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>658320.73833118356</v>
+        <v>1428.6288238014288</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>835080.60721598996</v>
+        <v>2831.4223861353671</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1059072.8022229474</v>
+        <v>5609.2712652840182</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1340538.6616608046</v>
+        <v>8056.8986169505042</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1702050.9141218888</v>
+        <v>10426.469396686214</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>1963201.270652455</v>
+        <v>15531.630789513776</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2107760.9458950623</v>
+        <v>24476.322961788337</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>2522774.1674568965</v>
+        <v>37486.758237840964</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>770.38904690694721</v>
+        <v>-93.90957055833951</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>436.49490383890372</v>
+        <v>-92.667292255194042</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6466.1781131907992</v>
+        <v>228.57704461161984</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9378470866092599</v>
+        <v>2.6479962457927275E-2</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.940350223740163</v>
+        <v>1.7704544742662254E-2</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.716042098678564</v>
+        <v>9.5418120856215483E-3</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.631504880798644</v>
+        <v>3.0627458186359702E-3</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.993628646426881</v>
+        <v>3.0307758069527679E-3</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.621638735857587</v>
+        <v>5.8602233191791364E-2</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.623313147151997</v>
+        <v>8.5346458761850541E-2</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.444589991026355</v>
+        <v>9.3842445029506782E-2</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.083027075419949</v>
+        <v>0.18069639304458096</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>101.80866258393058</v>
+        <v>0.23027876464296559</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.42462542637173</v>
+        <v>0.30443191717425133</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.22189639218749</v>
+        <v>0.57340505507628248</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>215.74172146209486</v>
+        <v>1.1063698225113539</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>267.86332714342313</v>
+        <v>1.5392468363854377</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>320.99173139601953</v>
+        <v>2.463278818822483</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>408.76523660222352</v>
+        <v>4.1613143618910451</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>497.29019775076051</v>
+        <v>8.4010355107779784</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>592.8109670797478</v>
+        <v>15.259145343148791</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>695.95805944909137</v>
+        <v>28.156844393928417</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>811.3696681113878</v>
+        <v>37.797206560821778</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>913.82744936666791</v>
+        <v>53.21111149126061</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1029.1126285411851</v>
+        <v>74.895068364238895</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1157.8163333019641</v>
+        <v>89.76022848093973</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1304.6267336375906</v>
+        <v>102.1100846963032</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1401.1428444853348</v>
+        <v>124.62596354497636</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1451.8129858542602</v>
+        <v>156.44910661869673</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1588.3243269108789</v>
+        <v>193.61497420871393</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.1928743038824852E-4</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>1.2125274902541339E-4</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460559</v>
+        <v>1.5757036704711069E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>2.0029173499624964E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187283</v>
+        <v>2.664760856346815E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>4.9683427927194046E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>5.6568980693061377E-4</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.06101008665874</v>
+        <v>6.3863782902517929E-4</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>1.2010969450853004E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359827</v>
+        <v>1.4064289100758076E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>2.0418169551408294E-3</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>4.7407650462440998E-3</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371471</v>
+        <v>1.0112559330970994E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>1.3134893321197105E-2</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>2.7935510052290669E-2</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>5.8429781940668835E-2</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705493</v>
+        <v>0.14435550446969847</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.27780395626332699</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>0.5678420739933876</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>0.57998259324692647</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173104</v>
+        <v>0.95992150589230807</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>1.4099517156247003</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>1.3696999171835618</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>1.6521162950392494</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>2.4016683308555944</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>3.2334306715700958</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.8245521334834134</v>
+        <v>0.5147965485548438</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.593966478105669</v>
+        <v>0.51491583598523205</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>15.157682450494519</v>
+        <v>0.51503708873425746</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.882125787240575</v>
+        <v>0.51519465910130458</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>26.10319819325505</v>
+        <v>0.51539495083630082</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.686067575873778</v>
+        <v>0.51566142692193551</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.787035800537602</v>
+        <v>0.51615826120120745</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.780798603584287</v>
+        <v>0.51672395100813806</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.841808690243028</v>
+        <v>0.51736258883716324</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>101.12701628090046</v>
+        <v>0.51856368578224854</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.53191103826029</v>
+        <v>0.51997011469232435</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>169.46267834286348</v>
+        <v>0.52201193164746518</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>218.43867333064779</v>
+        <v>0.52675269669370928</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.77685965701926</v>
+        <v>0.53686525602468027</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>326.22835792679729</v>
+        <v>0.55000014934587738</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.76736091323994</v>
+        <v>0.57793565939816804</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.9390486098643</v>
+        <v>0.63636544133883688</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>609.24118220691923</v>
+        <v>0.78072094580853535</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>724.1204133842183</v>
+        <v>1.0585249020718623</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.74450901538887</v>
+        <v>1.6263669760652499</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.68077493430997</v>
+        <v>2.2063495693121764</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.743106026041</v>
+        <v>3.1662710752044845</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.9281340152802</v>
+        <v>4.5762227908291848</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1434.3182547422564</v>
+        <v>5.9459227080127466</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.7361474750783</v>
+        <v>7.598039003051996</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.8066772077364</v>
+        <v>9.9997073339075904</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1895.2611076395558</v>
+        <v>13.233138005477686</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1689.0893904678387</v>
+        <v>-192.93857916623952</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>658.40386019937341</v>
+        <v>-118.04727448386824</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4095606.9429751793</v>
+        <v>10993.01427987904</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>68.611583079874421</v>
+        <v>7.0461944553784834E-4</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.3517106174468</v>
+        <v>3.1612454349482357E-4</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.12536517010935</v>
+        <v>9.2587839202500256E-5</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>374.95611986291823</v>
+        <v>9.906192951987956E-6</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.5761341362595</v>
+        <v>9.720073785484045E-6</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1163.6092039668231</v>
+        <v>3.4444725018020722E-3</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1952.3529491804452</v>
+        <v>7.299880214267385E-3</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3383.765686164586</v>
+        <v>8.8229139096064248E-3</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5797.8594332400899</v>
+        <v>3.2677738286368913E-2</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10075.766100899942</v>
+        <v>5.305510953661912E-2</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17084.445042794119</v>
+        <v>9.2697118204272622E-2</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28347.536881333875</v>
+        <v>0.32878591661075524</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>47004.672860029386</v>
+        <v>1.2239215218348838</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>72738.575063149416</v>
+        <v>2.3688138444916249</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>104468.14405611392</v>
+        <v>6.0665476753464622</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>168944.39228728038</v>
+        <v>17.313658596450107</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>248903.2403817848</v>
+        <v>70.570892098900998</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>351888.00385431806</v>
+        <v>232.83630385335027</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>482891.91912532278</v>
+        <v>792.85250532265547</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>654996.0239383704</v>
+        <v>1428.8321111658106</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>832219.35289357638</v>
+        <v>2831.7140926650759</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1062312.6623047874</v>
+        <v>5608.7075170277649</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1361002.3485451688</v>
+        <v>8051.8063432282052</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>1759189.7787535298</v>
+        <v>10409.67496546346</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2078483.7041220248</v>
+        <v>15486.153615827146</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2300451.2338975873</v>
+        <v>24361.94064515541</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>2853022.9689910151</v>
+        <v>37225.295330687273</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>819.26338570533539</v>
+        <v>-93.581496925470134</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>513.91973823640501</v>
+        <v>-92.142267185219566</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6451.0122229305352</v>
+        <v>228.57896073418712</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.2832109160563103</v>
+        <v>2.6544668872258481E-2</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.061270750571419</v>
+        <v>1.777989154901749E-2</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.633023104270332</v>
+        <v>9.6222574899292868E-3</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.363783717623946</v>
+        <v>3.1474105153265208E-3</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.584685539131794</v>
+        <v>3.1177032869540433E-3</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.111716520380838</v>
+        <v>5.8689628571001129E-2</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.18543820287907</v>
+        <v>8.5439336457321491E-2</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.17014428523094</v>
+        <v>9.3930367345211763E-2</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.14367625246426</v>
+        <v>0.18076984894160009</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.37811564728609</v>
+        <v>0.23033694783212511</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>130.70747890918148</v>
+        <v>0.30446201438647913</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.36726784423948</v>
+        <v>0.5733985669765449</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>216.80561076694806</v>
+        <v>1.1063098670060227</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>269.70089926277484</v>
+        <v>1.5390951382197349</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>323.21532150582516</v>
+        <v>2.4630362716262346</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>411.02845678526978</v>
+        <v>4.160968468571963</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>498.90203485432369</v>
+        <v>8.4006483142017672</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>593.20148672632138</v>
+        <v>15.258974534789363</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>694.90425176805672</v>
+        <v>28.157636714089758</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>809.31824638912622</v>
+        <v>37.799895650197378</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>912.26057291410791</v>
+        <v>53.213852450889853</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1030.6855302684653</v>
+        <v>74.89130468237127</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1166.6200532071994</v>
+        <v>89.731858017251625</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1326.3445173685191</v>
+        <v>102.02781466572466</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1441.6947333336641</v>
+        <v>124.44337513836221</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1516.723848924908</v>
+        <v>156.08312094892071</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1689.0893904678387</v>
+        <v>192.93857916623952</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737854</v>
+        <v>8.884003579789912E-5</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166</v>
+        <v>1.0999479110984645E-4</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>1.5315450249564488E-4</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129818</v>
+        <v>2.0611624040434151E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>2.8204252887686909E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573258</v>
+        <v>5.0743153080079484E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>6.0585905909593674E-4</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398951</v>
+        <v>6.9933972541147416E-4</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>1.267478365317376E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687781</v>
+        <v>1.487320066458242E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>2.1252832556080126E-3</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>4.8523078615180237E-3</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290275</v>
+        <v>1.0261903448350429E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>1.3182526952177032E-2</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>2.7880467376274365E-2</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>5.8045419351062888E-2</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441171</v>
+        <v>0.1431301609633332</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.27531630110232541</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>0.56487557989592041</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>0.5837084195893063</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584672</v>
+        <v>0.97916187692910261</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>1.4653453161538015</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>1.4751613826237513</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>1.8346110977542001</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>2.7227675198598877</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485074</v>
+        <v>3.7636266820601669</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>4.1414034552128083</v>
+        <v>0.51461340874190842</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>6.2672996051865937</v>
+        <v>0.51470224877770632</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>9.3356376184031937</v>
+        <v>0.51481224356881616</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.741430669576911</v>
+        <v>0.51496539807131181</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.911302652189892</v>
+        <v>0.51517151431171615</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.716212649767634</v>
+        <v>0.51545355684059302</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.608973548340892</v>
+        <v>0.51596098837139381</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.716715956506697</v>
+        <v>0.51656684743048975</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>74.296653195905648</v>
+        <v>0.51726618715590122</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>100.3889097406079</v>
+        <v>0.5185336655212186</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.74404607429568</v>
+        <v>0.52002098558767684</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>172.47261869683521</v>
+        <v>0.52214626884328486</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.80172744277186</v>
+        <v>0.52699857670480288</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.56434562306214</v>
+        <v>0.53726048015315331</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>330.28832707590118</v>
+        <v>0.55044300710533034</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>418.30488007219282</v>
+        <v>0.5783234744816047</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.95342078668119</v>
+        <v>0.63636889383266759</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>606.44756924812236</v>
+        <v>0.77949905479600079</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>719.18661459737473</v>
+        <v>1.0548153558983262</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.65156783057739</v>
+        <v>1.6196909357942466</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.9942777362279</v>
+        <v>2.2033993553835529</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.5510183720746</v>
+        <v>3.1825612323126555</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1283.1725263146482</v>
+        <v>4.647906548466457</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1481.0813544604541</v>
+        <v>6.1230679310902083</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.6102348927088</v>
+        <v>7.9576790288444084</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.5419234416452</v>
+        <v>10.680446548704296</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.6585932464959</v>
+        <v>14.444073230764463</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>1869.4868760747786</v>
+        <v>-191.72764394095273</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>831.9934334602799</v>
+        <v>-116.85262941568963</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4096313.0024540145</v>
+        <v>10991.632266143319</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>12.960448115930626</v>
+        <v>7.1437575711232461E-4</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>32.885681633585307</v>
+        <v>3.2376527776217231E-4</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.633338112810563</v>
+        <v>9.6965430705406471E-5</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.8500721223995</v>
+        <v>1.1401910724968944E-5</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>376.08030390911335</v>
+        <v>1.1163215240248981E-5</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>791.96437399131321</v>
+        <v>3.4689153475028181E-3</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1521.5753785578725</v>
+        <v>7.3336288501974376E-3</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2927.4659059916494</v>
+        <v>8.8524521846600392E-3</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5416.7422577844336</v>
+        <v>3.2712600614371964E-2</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9928.1314148417532</v>
+        <v>5.3068939988432713E-2</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17402.784543455058</v>
+        <v>9.2666144281575283E-2</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29370.147489813029</v>
+        <v>0.3286318771460881</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>48915.578324391317</v>
+        <v>1.2233775433271188</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>75343.873625523833</v>
+        <v>2.3675974256244565</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>107109.1158732683</v>
+        <v>6.0643663220200503</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>171036.81645869734</v>
+        <v>17.310431374183018</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>248917.58120486274</v>
+        <v>70.570834092539954</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>348581.45740668918</v>
+        <v>232.87359495405707</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>476059.22598710045</v>
+        <v>793.06142319044534</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>646778.34153097321</v>
+        <v>1429.3368629865251</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>829145.14736609475</v>
+        <v>2832.0280858662304</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1076392.6434680845</v>
+        <v>5606.2678001583618</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1413398.6697896379</v>
+        <v>8038.9468482644115</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>1885424.5281015616</v>
+        <v>10373.558865915389</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2315171.6762824855</v>
+        <v>15396.773319486387</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>2681272.2883183309</v>
+        <v>24149.900248638394</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>3494981.1798158344</v>
+        <v>36759.489451148751</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>906.7620436598063</v>
+        <v>-92.994153888365673</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>649.41576650057709</v>
+        <v>-91.209782250307654</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6416.6380481990618</v>
+        <v>228.57733076906879</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6000622377857061</v>
+        <v>2.6727808685193866E-2</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7346038776523445</v>
+        <v>1.7993478756543224E-2</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8109782721790069</v>
+        <v>9.8471026553705876E-3</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.223088599960279</v>
+        <v>3.3766715453192875E-3</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.392789998066636</v>
+        <v>3.3411398115387181E-3</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.141861594274697</v>
+        <v>5.8897498652343616E-2</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.007375950682359</v>
+        <v>8.5636609287135124E-2</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.106061638153349</v>
+        <v>9.4087470922860073E-2</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.598520758126881</v>
+        <v>0.1808662506228621</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.640009106993531</v>
+        <v>0.23036696809315504</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>131.91961394521687</v>
+        <v>0.30441114349112663</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.37720819821121</v>
+        <v>0.57326422978072522</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>221.16866487907214</v>
+        <v>1.1060639869949291</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>274.48838522881772</v>
+        <v>1.5386999140912618</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>327.27529065492905</v>
+        <v>2.4625934138667818</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>413.56597594422266</v>
+        <v>4.1605806534885268</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>498.91640703114058</v>
+        <v>8.4006448617079368</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>590.40787376752451</v>
+        <v>15.260196425801899</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>689.97045298121316</v>
+        <v>28.161346260263294</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>804.22530520431474</v>
+        <v>37.806571690468381</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>910.57407571602585</v>
+        <v>53.216802664818474</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1037.4934426144989</v>
+        <v>74.875014525263111</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1188.8644455065673</v>
+        <v>89.660174259614351</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1373.1076170867168</v>
+        <v>101.8506694426472</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1521.5688207512947</v>
+        <v>124.0837351125698</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1637.4590951588168</v>
+        <v>155.40238173412399</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>1869.4868760747786</v>
+        <v>191.72764394095273</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983957</v>
+        <v>8.7462247022829231E-5</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.043276329398747</v>
+        <v>1.0929757928801465E-4</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>1.5276342187586778E-4</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336907</v>
+        <v>2.0615902859588697E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>2.8248136081887587E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412962</v>
+        <v>5.0764607813758023E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>6.0711753438236205E-4</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.627528157613803</v>
+        <v>7.0127298594080401E-4</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>1.2693508393728514E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.41188703743218</v>
+        <v>1.4896166887563567E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>2.1275328101680868E-3</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>4.8549505216640698E-3</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547824</v>
+        <v>1.0265341744239098E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>1.3184070755726696E-2</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>2.7880439125652079E-2</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>5.8040167523459529E-2</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634772</v>
+        <v>0.14311194097238622</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.27527790504041616</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>0.56483202353580042</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>0.58377674805311774</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791261</v>
+        <v>0.97950005056286216</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>1.4663169224135633</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>1.477027311361816</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>1.8378946415613182</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>2.7286532844498357</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.24413957997012</v>
+        <v>3.7735418773452221</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.9888784125054233</v>
+        <v>0.51460744407802339</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>6.084185645303819</v>
+        <v>0.51469490632504622</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>9.127461974702566</v>
+        <v>0.51480420390433423</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.51561542620194</v>
+        <v>0.5149569673262101</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.678854742935631</v>
+        <v>0.51516312635480599</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>28.487920427324109</v>
+        <v>0.51544560771562487</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>39.405954589737071</v>
+        <v>0.51595325379376245</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.54918689348343</v>
+        <v>0.51656037132814481</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>74.176715051097233</v>
+        <v>0.51726164431408561</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>100.32325355238522</v>
+        <v>0.51853099515345846</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.73514058981741</v>
+        <v>0.52002061184221482</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.51464781219897</v>
+        <v>0.52214814465238291</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.88190608652786</v>
+        <v>0.52700309517404698</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.66072865907569</v>
+        <v>0.53726843691828607</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>330.37542505471322</v>
+        <v>0.55045250767401277</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>418.36685855003975</v>
+        <v>0.57833294679966485</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.97099000999452</v>
+        <v>0.63637311432312438</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>606.4155621496293</v>
+        <v>0.7794850552955106</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>719.116927053371</v>
+        <v>1.0547629603359268</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.57836912623691</v>
+        <v>1.6195949838717272</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.97848671671579</v>
+        <v>2.2033717319248449</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.6808021646284</v>
+        <v>3.1828717824877071</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.5703959529767</v>
+        <v>4.6491887049012703</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.912391382044</v>
+        <v>6.1262160162630863</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1655.0386645961439</v>
+        <v>7.9641106578244045</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.7265244067462</v>
+        <v>10.69276394227424</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.9706639867163</v>
+        <v>14.466305819619462</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>1872.798946814999</v>
+        <v>-191.70541135209774</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>835.17572040794653</v>
+        <v>-116.83070737700969</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4096429.082001525</v>
+        <v>10991.599109256496</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>11.885512711448499</v>
+        <v>7.1469463747992094E-4</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.819040307097186</v>
+        <v>3.2402956420570411E-4</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.008213064554511</v>
+        <v>9.7123830144548045E-5</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.92911470580233</v>
+        <v>1.1458917516613458E-5</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>367.11870896031496</v>
+        <v>1.1219336271610127E-5</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>779.1673550760313</v>
+        <v>3.4698517778456043E-3</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1505.7781215686746</v>
+        <v>7.3349536360263661E-3</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2909.3652963583691</v>
+        <v>8.8536708667820881E-3</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5399.1021028622663</v>
+        <v>3.2714243928542101E-2</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9915.0517591919306</v>
+        <v>5.3070170324612774E-2</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17400.43500661397</v>
+        <v>9.2666371826281915E-2</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29384.554921167732</v>
+        <v>0.32862972648109118</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>48951.050760188889</v>
+        <v>1.2233675479153208</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>75396.794963051085</v>
+        <v>2.3675729395401142</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>107166.13349198854</v>
+        <v>6.0643195300345782</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>171088.08467938568</v>
+        <v>17.31035255358621</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>248935.11266107997</v>
+        <v>70.570763182874842</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>348543.66394520999</v>
+        <v>232.87402222450774</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>475963.06615084747</v>
+        <v>793.06437425234117</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>646660.6103883459</v>
+        <v>1429.344118222207</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>829116.38982945739</v>
+        <v>2832.0310259312955</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1076661.9599793816</v>
+        <v>5606.221295357067</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1414344.8542237976</v>
+        <v>8038.7169331695904</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>1887707.4249781575</v>
+        <v>10372.917606661187</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2319520.6248926669</v>
+        <v>15395.177239758847</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>2688431.4502389026</v>
+        <v>24146.07209576153</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>3507375.8951913696</v>
+        <v>36750.964741677002</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>908.36850587763888</v>
+        <v>-92.983370358422775</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>651.8997131691807</v>
+        <v>-91.192670916275389</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6415.1669662398726</v>
+        <v>228.57724055716017</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4475371950783211</v>
+        <v>2.6733773349078893E-2</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5514899177695698</v>
+        <v>1.8000821209203322E-2</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.6028026284783792</v>
+        <v>9.8551423198525168E-3</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.997273356585309</v>
+        <v>3.3851022904209938E-3</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.160342088812374</v>
+        <v>3.3495277684488789E-3</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.913569371831173</v>
+        <v>5.890544777731177E-2</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.804356992078539</v>
+        <v>8.5644343864766492E-2</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>53.938532575130083</v>
+        <v>9.4093947025205016E-2</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.478582613318466</v>
+        <v>0.18087079346467771</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.574352918770856</v>
+        <v>0.23036963846091518</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>131.91070846073859</v>
+        <v>0.30441151723658866</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.41923731357497</v>
+        <v>0.57326235397162717</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>221.24884352282814</v>
+        <v>1.106059468525685</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>274.58476826483127</v>
+        <v>1.5386919573261291</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>327.36238863374109</v>
+        <v>2.4625839132980989</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>413.62795442206959</v>
+        <v>4.1605711811704662</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>498.93397625445391</v>
+        <v>8.4006406412174801</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>590.37586666903144</v>
+        <v>15.26021042530239</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>689.90076543720943</v>
+        <v>28.161398655825693</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>804.15210649997425</v>
+        <v>37.806667642390899</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>910.55828469651374</v>
+        <v>53.21683028827718</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1037.6232264070527</v>
+        <v>74.874703975088053</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1189.2623151448959</v>
+        <v>89.658892103179539</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1373.9386540083067</v>
+        <v>101.84752135747432</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1522.9972504547297</v>
+        <v>124.0773034835898</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1639.6436961239178</v>
+        <v>155.39006434055406</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>1872.798946814999</v>
+        <v>191.70541135209774</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.52331367847850285</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.55323595442710227</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.5456430955342495</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.54176460922418679</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.53860522751136797</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.54193370675483377</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60193000286135767</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.63233443976379211</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.64144379203756041</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.7213955956735002</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>0.77490063361437367</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>0.8554321290788035</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>1.13041049862401</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>1.687062563699731</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>2.2119603942444148</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>3.299591976527668</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>5.3516192794852833</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>9.9868208262476745</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>17.644685379587791</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>31.557362626262631</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>42.523411641575898</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>59.704800353535347</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>82.817820252525266</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>101.3167605050505</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>122.0178553535354</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>152.1574391919192</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>191.44436454545459</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>231.45889994425389</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.52331367847850285</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.55323595442710227</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.5456430955342495</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.54176460922418679</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.53860522751136797</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.54193370675483377</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60193000286135767</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.63233443976379211</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.64144379203756041</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.7213955956735002</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>0.77490063361437367</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>0.8554321290788035</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>1.13041049862401</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>1.687062563699731</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>2.2119603942444148</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>3.299591976527668</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>5.3516192794852833</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>9.9868208262476745</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>17.644685379587791</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>31.557362626262631</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>42.523411641575898</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>59.704800353535347</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>82.817820252525266</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>101.3167605050505</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>122.0178553535354</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>152.1574391919192</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>191.44436454545459</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>231.45889994425389</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
